--- a/biology/Histoire de la zoologie et de la botanique/Samuel_Washington_Woodhouse/Samuel_Washington_Woodhouse.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Samuel_Washington_Woodhouse/Samuel_Washington_Woodhouse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Washington Woodhouse est un médecin et un ornithologue américain, né le 27 juin 1821 à Philadelphie et mort le 23 octobre 1904 dans cette même ville.
 Après des études élémentaires, il devient fermier vers 1840. Passionné depuis longtemps par l'histoire naturelle et spécialement l'ornithologie, il devient l'ami de Thomas Nuttall (1786-1859) mais aussi de John Kirk Townsend (1809-1851), George Leib, Samuel G. Morton, Robert Bridges, Paul Goddard, Joseph Carson, Elwyn et Zantzinger et d'autres membres de l'Academy of Natural Sciences of Philadelphia. Dans sa ferme, il continue d'étudier l'ornithologie et grâce aux conseils du Dr Leib, il devient un expert en taxidermie.
@@ -490,7 +502,7 @@
 Il participe en 1853 à une expédition conduite par Ephraim G. Squier destinée à explorer un possible tracé de chemin de fer au Honduras.
 Il devient correspondant de l’American Ornithologists' Union en 1903 et membre à vie de l’Académie de Philadelphie.
 Après 1856, il démissionne de la commission et participe à diverses expéditions en Amérique centrale puis est chirurgien dans un pénitencier militaire. En 1859, il devient médecin de bord sur la Cope’s Line qui relie Philadelphie et Liverpool. Après la Guerre de Sécession, il exerce la médecine à Philadelphie.
-Il fait paraître ses souvenirs sous le titre de A Naturalist in Indian Territory : The Journal of S.W. Woodhouse, 1849-1850. Ceux-ci sont réédités en 1992[1]. Son journal est un document exceptionnel sur la vie au jour le jour des amérindiens Cherokees, Creeks, Osages et Comanches. Il témoigne aussi sur les changements qu’affrontent ces peuples dans un environnement qui se modifie rapidement. 
+Il fait paraître ses souvenirs sous le titre de A Naturalist in Indian Territory : The Journal of S.W. Woodhouse, 1849-1850. Ceux-ci sont réédités en 1992. Son journal est un document exceptionnel sur la vie au jour le jour des amérindiens Cherokees, Creeks, Osages et Comanches. Il témoigne aussi sur les changements qu’affrontent ces peuples dans un environnement qui se modifie rapidement. 
 </t>
         </is>
       </c>
@@ -519,7 +531,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ John S. Tomer et Michael J. Brodhead (dir.), University of Oklahoma Press (Norman) : xvi + 304 p.  (ISBN 0-8061-2476-8)
